--- a/Artifact Experiment/AM 25-7-18/2018-07-25 14.35.01 A M RIGHT HAND MOVING/tempmean.xlsx
+++ b/Artifact Experiment/AM 25-7-18/2018-07-25 14.35.01 A M RIGHT HAND MOVING/tempmean.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\TPS 2A\Stage 2A\TNO\cleaning signal\stimuli\AM 25-7-18\2018-07-25 14.35.01 A M RIGHT HAND MOVING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\TPS 2A\Stage 2A\TNO\cleaning signal\Neurolab Git\Artifact Experiment\AM 25-7-18\2018-07-25 14.35.01 A M RIGHT HAND MOVING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73121EE-D718-48AB-9AFF-F5213B10871B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E243E-D47F-4270-AF39-FD5025ADEDAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{94850E08-6AB3-4BF6-8FEB-63ACE182F855}"/>
   </bookViews>
